--- a/ReserveRoom/Data/ReservationData.xlsx
+++ b/ReserveRoom/Data/ReservationData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>1/9/2023</t>
+  </si>
+  <si>
+    <t>22, 2</t>
+  </si>
+  <si>
+    <t>1/20/2024</t>
+  </si>
+  <si>
+    <t>1/25/2024</t>
+  </si>
+  <si>
+    <t>A_new</t>
+  </si>
+  <si>
+    <t>12, 22</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>2, 12</t>
+  </si>
+  <si>
+    <t>1, 12</t>
+  </si>
+  <si>
+    <t>1/31/2024</t>
   </si>
 </sst>
 </file>
@@ -128,7 +155,7 @@
   <sheetPr codeName="">
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -210,6 +237,62 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
